--- a/VitalSigns/CurrentBuild/StructureDefinition-DipsVitalSignsObservationBodyMassIndex.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-DipsVitalSignsObservationBodyMassIndex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-15T08:16:09+00:00</t>
+    <t>2022-01-15T22:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
